--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,270 +43,282 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>parts</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>though</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>price</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>need</t>
+    <t>put</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>think</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>get</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>got</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -328,10 +340,13 @@
     <t>great</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>loves</t>
+    <t>best</t>
   </si>
   <si>
     <t>loved</t>
@@ -340,25 +355,22 @@
     <t>perfect</t>
   </si>
   <si>
-    <t>best</t>
+    <t>learn</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>fun</t>
   </si>
   <si>
     <t>family</t>
@@ -737,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -806,13 +818,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -824,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>0.8461538461538461</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -848,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -856,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -874,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K4">
-        <v>0.8035714285714286</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -906,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C5">
         <v>23</v>
@@ -924,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K5">
-        <v>0.6774193548387096</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="L5">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -948,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -956,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7905405405405406</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C6">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -974,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K6">
-        <v>0.65625</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -998,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1006,13 +1018,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7887323943661971</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1024,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K7">
-        <v>0.6415094339622641</v>
+        <v>0.671875</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1048,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1056,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7818181818181819</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1074,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K8">
-        <v>0.4782608695652174</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1098,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1106,13 +1118,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7815533980582524</v>
+        <v>0.78125</v>
       </c>
       <c r="C9">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1124,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K9">
-        <v>0.4459016393442623</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="L9">
-        <v>544</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>544</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1148,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>676</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1156,13 +1168,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.78125</v>
+        <v>0.7718446601941747</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1174,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K10">
-        <v>0.4209770114942529</v>
+        <v>0.4544708777686629</v>
       </c>
       <c r="L10">
-        <v>293</v>
+        <v>554</v>
       </c>
       <c r="M10">
-        <v>294</v>
+        <v>555</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1198,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>403</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1206,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7631578947368421</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1224,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K11">
-        <v>0.3838174273858921</v>
+        <v>0.4024896265560166</v>
       </c>
       <c r="L11">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M11">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1248,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1256,13 +1268,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7526881720430108</v>
+        <v>0.7364864864864865</v>
       </c>
       <c r="C12">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D12">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1274,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K12">
-        <v>0.3027522935779817</v>
+        <v>0.4017216642754663</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1298,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>228</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1306,13 +1318,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6857142857142857</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1324,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K13">
-        <v>0.3012048192771085</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1348,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1356,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1374,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K14">
-        <v>0.3</v>
+        <v>0.2813455657492355</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1398,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>84</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1406,13 +1418,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6222222222222222</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1424,31 +1436,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K15">
-        <v>0.2872340425531915</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="L15">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1456,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6218487394957983</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C16">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1474,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K16">
-        <v>0.2109375</v>
+        <v>0.2265625</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1498,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1506,13 +1518,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6111111111111112</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1524,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K17">
-        <v>0.2008032128514056</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1548,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>199</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1556,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6052631578947368</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1574,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K18">
-        <v>0.1888111888111888</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1598,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1606,13 +1618,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5952380952380952</v>
+        <v>0.5710144927536231</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1624,31 +1636,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K19">
-        <v>0.1621621621621622</v>
+        <v>0.1660808435852373</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>155</v>
+        <v>949</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1656,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5925925925925926</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1674,31 +1686,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K20">
-        <v>0.1526315789473684</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L20">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>966</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1706,13 +1718,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5855072463768116</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C21">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1724,31 +1736,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K21">
-        <v>0.1002785515320334</v>
+        <v>0.1619433198380567</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>323</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1756,13 +1768,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5542168674698795</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1774,31 +1786,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K22">
-        <v>0.09817945383615084</v>
+        <v>0.1197771587743733</v>
       </c>
       <c r="L22">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1387</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1806,13 +1818,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5238095238095238</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1824,31 +1836,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K23">
-        <v>0.0804953560371517</v>
+        <v>0.09811565951916829</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="N23">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>297</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1856,13 +1868,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.515625</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1874,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K24">
-        <v>0.08042895442359249</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L24">
         <v>30</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>343</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1906,13 +1918,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5118110236220472</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="C25">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1924,31 +1936,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K25">
-        <v>0.05</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N25">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="O25">
-        <v>0.24</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>703</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1956,13 +1968,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5116279069767442</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1974,31 +1986,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K26">
-        <v>0.04610951008645533</v>
+        <v>0.06425702811244979</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N26">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="O26">
-        <v>0.26</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>662</v>
+        <v>699</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2006,13 +2018,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4909090909090909</v>
+        <v>0.4502369668246445</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2024,7 +2036,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>28</v>
+        <v>116</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K27">
+        <v>0.03746397694524495</v>
+      </c>
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>37</v>
+      </c>
+      <c r="N27">
+        <v>0.7</v>
+      </c>
+      <c r="O27">
+        <v>0.3</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2032,13 +2068,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4736842105263158</v>
+        <v>0.4453125</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2050,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2058,25 +2094,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.453125</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2084,13 +2120,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4464285714285715</v>
+        <v>0.4257425742574257</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2102,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2110,7 +2146,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4333333333333333</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C31">
         <v>26</v>
@@ -2128,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2136,13 +2172,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4218009478672986</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C32">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2154,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>122</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2162,13 +2198,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4207920792079208</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C33">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2180,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>117</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2188,13 +2224,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4126984126984127</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2206,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2214,13 +2250,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4107142857142857</v>
+        <v>0.40625</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2232,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2240,13 +2276,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4074074074074074</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2258,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2266,13 +2302,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4029850746268657</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="C37">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2284,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2292,13 +2328,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3932584269662922</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2310,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2318,13 +2354,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3770491803278688</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2336,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2344,13 +2380,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3768115942028986</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2362,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2370,13 +2406,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3760683760683761</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C41">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2388,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2396,13 +2432,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3648648648648649</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2414,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2422,13 +2458,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3402061855670103</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="C43">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2440,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2448,25 +2484,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3333333333333333</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="C44">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2474,13 +2510,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3186813186813187</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="C45">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2492,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2500,13 +2536,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3144329896907216</v>
+        <v>0.310126582278481</v>
       </c>
       <c r="C46">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D46">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2518,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>133</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2526,13 +2562,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3132911392405063</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C47">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2544,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>217</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2552,13 +2588,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3069620253164557</v>
+        <v>0.305</v>
       </c>
       <c r="C48">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D48">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2570,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>219</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2578,13 +2614,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2596,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>140</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2604,25 +2640,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2948717948717949</v>
+        <v>0.2942050520059435</v>
       </c>
       <c r="C50">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>55</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2630,13 +2666,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2857142857142857</v>
+        <v>0.2911392405063291</v>
       </c>
       <c r="C51">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2648,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>70</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2656,13 +2692,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2785714285714286</v>
+        <v>0.2835051546391752</v>
       </c>
       <c r="C52">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D52">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2674,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2682,25 +2718,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2776119402985074</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C53">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="D53">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="E53">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>484</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2708,13 +2744,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2523364485981308</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2726,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>160</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2734,13 +2770,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2474226804123711</v>
+        <v>0.267515923566879</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2752,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2760,25 +2796,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2457142857142857</v>
+        <v>0.2672413793103448</v>
       </c>
       <c r="C56">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D56">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2786,25 +2822,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2407407407407407</v>
+        <v>0.2616822429906542</v>
       </c>
       <c r="C57">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2812,13 +2848,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2404371584699453</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C58">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D58">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2830,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>139</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2838,25 +2874,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2372881355932203</v>
+        <v>0.2362030905077263</v>
       </c>
       <c r="C59">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="D59">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>90</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2864,13 +2900,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2355072463768116</v>
+        <v>0.234375</v>
       </c>
       <c r="C60">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D60">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2882,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>211</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2890,25 +2926,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2273730684326711</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="C61">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="D61">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="E61">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>350</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2916,13 +2952,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2243589743589744</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="C62">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D62">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E62">
         <v>0.03</v>
@@ -2934,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2942,13 +2978,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.21875</v>
+        <v>0.2196261682242991</v>
       </c>
       <c r="C63">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D63">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2960,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>100</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2968,25 +3004,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2161383285302594</v>
+        <v>0.2126436781609195</v>
       </c>
       <c r="C64">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E64">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2994,13 +3030,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D65">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3012,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>104</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3020,13 +3056,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1770833333333333</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C66">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D66">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3038,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>158</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3046,25 +3082,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.172972972972973</v>
+        <v>0.1835616438356164</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D67">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E67">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>153</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3072,25 +3108,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1729323308270677</v>
+        <v>0.1780104712041885</v>
       </c>
       <c r="C68">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D68">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E68">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>220</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3098,25 +3134,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1705882352941177</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E69">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3124,25 +3160,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.162534435261708</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="C70">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D70">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>304</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3150,25 +3186,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1605633802816901</v>
+        <v>0.1619433198380567</v>
       </c>
       <c r="C71">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D71">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>298</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3176,13 +3212,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1558441558441558</v>
+        <v>0.1605839416058394</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3194,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3202,25 +3238,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1557377049180328</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C73">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D73">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E73">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F73">
-        <v>0.9</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>206</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3228,25 +3264,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1526315789473684</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="C74">
         <v>29</v>
       </c>
       <c r="D74">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E74">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3254,25 +3290,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1487179487179487</v>
+        <v>0.1503759398496241</v>
       </c>
       <c r="C75">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D75">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E75">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F75">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>166</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3280,25 +3316,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1469534050179211</v>
+        <v>0.1464285714285714</v>
       </c>
       <c r="C76">
         <v>41</v>
       </c>
       <c r="D76">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E76">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3306,25 +3342,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1401273885350318</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C77">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D77">
         <v>23</v>
       </c>
       <c r="E77">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3332,25 +3368,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1375</v>
+        <v>0.1390374331550802</v>
       </c>
       <c r="C78">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E78">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F78">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3358,13 +3394,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1312292358803987</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="C79">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D79">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="E79">
         <v>0.07000000000000001</v>
@@ -3376,7 +3412,7 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>523</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3384,25 +3420,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1309255079006772</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C80">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D80">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E80">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>385</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3410,25 +3446,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1301587301587302</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="C81">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D81">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E81">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F81">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3436,25 +3472,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1257142857142857</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C82">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>153</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3462,25 +3498,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1194379391100703</v>
+        <v>0.1202672605790646</v>
       </c>
       <c r="C83">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D83">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E83">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>376</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3488,25 +3524,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.09898477157360407</v>
+        <v>0.1144859813084112</v>
       </c>
       <c r="C84">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D84">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E84">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F84">
-        <v>0.9299999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>710</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3514,13 +3550,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.09062980030721966</v>
+        <v>0.1092715231788079</v>
       </c>
       <c r="C85">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D85">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E85">
         <v>0.06</v>
@@ -3532,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>592</v>
+        <v>538</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3540,25 +3576,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.08665105386416862</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="C86">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D86">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E86">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="F86">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3566,25 +3602,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.06285714285714286</v>
+        <v>0.09438775510204081</v>
       </c>
       <c r="C87">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D87">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E87">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="F87">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>328</v>
+        <v>710</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3592,25 +3628,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.06209850107066381</v>
+        <v>0.07973421926910298</v>
       </c>
       <c r="C88">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D88">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E88">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>438</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3618,25 +3654,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.05988023952095808</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="C89">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D89">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E89">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F89">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>471</v>
+        <v>597</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3644,25 +3680,103 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.03958944281524927</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C90">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D90">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.06880733944954129</v>
+      </c>
+      <c r="C91">
+        <v>30</v>
+      </c>
+      <c r="D91">
+        <v>41</v>
+      </c>
+      <c r="E91">
         <v>0.27</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <v>0.73</v>
       </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>655</v>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>0.05988023952095808</v>
+      </c>
+      <c r="C92">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <v>33</v>
+      </c>
+      <c r="E92">
+        <v>0.09</v>
+      </c>
+      <c r="F92">
+        <v>0.91</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>0.05387931034482758</v>
+      </c>
+      <c r="C93">
+        <v>25</v>
+      </c>
+      <c r="D93">
+        <v>30</v>
+      </c>
+      <c r="E93">
+        <v>0.17</v>
+      </c>
+      <c r="F93">
+        <v>0.83</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
